--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -16,18 +16,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉廬山段06760000地號</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉廬山段06760001地號</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉廬山段06770000地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉東岳段08680001地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉東岳段07280013地號</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳郷東岳段07280001地號</t>
+  </si>
+  <si>
+    <t>38760</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>孔文吉</t>
+  </si>
+  <si>
+    <t>陳秋月</t>
+  </si>
+  <si>
+    <t>9.5年10月03日</t>
+  </si>
+  <si>
+    <t>98年10月03日</t>
+  </si>
+  <si>
+    <t>95年08月28日</t>
+  </si>
+  <si>
+    <t>93年05月18日</t>
+  </si>
+  <si>
+    <t>95年09月13曰</t>
+  </si>
+  <si>
+    <t>100年05月31曰</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(保留地申請：滿5年）</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpbec91</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -39,79 +150,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣、仁愛鄉廬山段0676-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣仁愛鄉廬山段0676-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣仁愛鄉廬山段0677-0000 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳鄉東岳段0868-0001 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳鄉東岳段0728-0013 地號</t>
-  </si>
-  <si>
-    <t>宜蘭縣南澳郷東岳段0728-0001 地號</t>
-  </si>
-  <si>
-    <t>38，760</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>孔文吉</t>
-  </si>
-  <si>
-    <t>陳秋月</t>
-  </si>
-  <si>
-    <t>9.5年10月 03日</t>
-  </si>
-  <si>
-    <t>98年10月 03日</t>
-  </si>
-  <si>
-    <t>95年08月 28日</t>
-  </si>
-  <si>
-    <t>93年05月 18日</t>
-  </si>
-  <si>
-    <t>95年09月 13曰</t>
-  </si>
-  <si>
-    <t>100 年 05 月31曰</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(保留地 申請：滿 5年）</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>中華-自小貨</t>
-  </si>
-  <si>
-    <t>98年01月 31曰</t>
+    <t>中華自小貨</t>
+  </si>
+  <si>
+    <t>98年01月31曰</t>
   </si>
   <si>
     <t>名</t>
@@ -132,22 +174,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及岁</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及岁</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -512,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,161 +582,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>17197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>1461745</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>13063</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>1110355</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>3294600</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>186960</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>1050000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>10235</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
         <v>1944650</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -712,22 +901,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -735,19 +924,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1094</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
@@ -768,22 +957,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -791,14 +980,14 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -808,22 +997,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣仁愛鄉廬山段06760000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣仁愛鄉廬山段06760001地號</t>
@@ -78,9 +81,6 @@
     <t>宜蘭縣南澳郷東岳段07280001地號</t>
   </si>
   <si>
-    <t>38760</t>
-  </si>
-  <si>
     <t>2分之1</t>
   </si>
   <si>
@@ -93,9 +93,6 @@
     <t>陳秋月</t>
   </si>
   <si>
-    <t>9.5年10月03日</t>
-  </si>
-  <si>
     <t>98年10月03日</t>
   </si>
   <si>
@@ -132,70 +129,37 @@
     <t>tmpbec91</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>中華自小貨</t>
+  </si>
+  <si>
+    <t>98年01月31曰</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及岁</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>中華自小貨</t>
-  </si>
-  <si>
-    <t>98年01月31曰</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及岁</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -554,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,16 +567,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>17197</v>
+        <v>13063</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -624,19 +594,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
-        <v>1461745</v>
+        <v>1110355</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -645,21 +615,27 @@
         <v>1312</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6531.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>13063</v>
+        <v>38760</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -671,19 +647,19 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>1110355</v>
+        <v>3294600</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
@@ -692,45 +668,51 @@
         <v>1312</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>19380</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
-        <v>3294600</v>
+        <v>186960</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
@@ -739,21 +721,27 @@
         <v>1312</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>228</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -768,16 +756,16 @@
         <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>186960</v>
+        <v>1050000</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>23</v>
@@ -786,21 +774,27 @@
         <v>1312</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>5000</v>
+        <v>10235</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -815,16 +809,16 @@
         <v>32</v>
       </c>
       <c r="H6" s="2">
-        <v>1050000</v>
+        <v>1944650</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>23</v>
@@ -833,57 +827,16 @@
         <v>1312</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>10235</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1944650</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1312</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +845,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -901,118 +887,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1094</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣仁愛鄉廬山段06760000地號</t>
+  </si>
+  <si>
     <t>南投縣仁愛鄉廬山段06760001地號</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
   </si>
   <si>
     <t>陳秋月</t>
+  </si>
+  <si>
+    <t>9.5年10月03日</t>
   </si>
   <si>
     <t>98年10月03日</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,119 +582,119 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>13063</v>
+        <v>17197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
-        <v>1110355</v>
+        <v>1461745</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1312</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>6531.5</v>
+        <v>8598.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>38760</v>
+        <v>13063</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
-        <v>3294600</v>
+        <v>1110355</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1312</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>19380</v>
+        <v>6531.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>228</v>
+        <v>38760</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -697,145 +703,198 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
-        <v>186960</v>
+        <v>3294600</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1312</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>228</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>5000</v>
+        <v>228</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>186960</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1050000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1312</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>5000</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>10235</v>
+        <v>5000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1050000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1944650</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>1312</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10235</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1944650</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1312</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>10235</v>
       </c>
     </row>
@@ -845,39 +904,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1094</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -889,37 +915,110 @@
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C1" s="1">
+        <v>1094</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1094</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>69</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>tmpbec91</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>中華自小貨</t>
@@ -905,38 +908,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>1094</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>1094</v>
@@ -945,13 +969,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1312</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -969,14 +1014,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -986,16 +1031,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1003,22 +1048,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>98年01月31曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及岁</t>
@@ -978,7 +981,7 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -1014,14 +1017,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1031,16 +1034,16 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1048,22 +1051,22 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
+++ b/legislator/property/output/normal/孔文吉_2011-11-21_財產申報表_tmpbec91.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="汽車" sheetId="2" r:id="rId2"/>
-    <sheet name="其他有價證券" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -145,33 +144,6 @@
   </si>
   <si>
     <t>car</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及岁</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
 </sst>
 </file>
@@ -1005,71 +977,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>